--- a/Standards based exam generator/Linear Algebra Example Grades.xlsx
+++ b/Standards based exam generator/Linear Algebra Example Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://davidsoncollegenc-my.sharepoint.com/personal/clmerriman_davidson_edu/Documents/Teaching--Course Material and Documents/Linear Algebra/Spring24Reviews To Share/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://davidsoncollegenc-my.sharepoint.com/personal/clmerriman_davidson_edu/Documents/Teaching--Course Material and Documents/Linear Algebra/linear-alg-standards/linear-alg-standards/Standards based exam generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1053" documentId="8_{523429E8-7BA5-FA45-8CBA-2096FCB904FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB5CE229-2B1D-9A46-A0BF-43B518E677BD}"/>
+  <xr:revisionPtr revIDLastSave="1067" documentId="8_{523429E8-7BA5-FA45-8CBA-2096FCB904FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB61BA2E-094A-2049-919D-144F76468CBF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Homework_1_scores" sheetId="4" r:id="rId1"/>
@@ -590,7 +590,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -692,6 +692,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -751,7 +757,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
@@ -807,6 +813,7 @@
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,7 +827,132 @@
     <cellStyle name="Normal 9" xfId="9" xr:uid="{45416CE9-1585-6947-8196-11EAE957EB51}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1087,10 +1219,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1630,7 +1758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7770B68E-3660-3640-8367-868E941A8C12}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -3684,8 +3812,8 @@
   <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D20" sqref="D20"/>
+      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4706,55 +4834,55 @@
     <sortCondition ref="B1:B6"/>
   </sortState>
   <conditionalFormatting sqref="C2:C5">
-    <cfRule type="cellIs" dxfId="26" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="12" stopIfTrue="1" operator="equal">
       <formula>COUNTIF($I2:$AD2,"&lt;&gt;")</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0.5*COUNTIF($I2:$AD2,"&lt;&gt;")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="lessThan">
       <formula>2.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="7" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="9" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:H5">
-    <cfRule type="cellIs" dxfId="18" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>2.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H5">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:AF5">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="DN">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="DN">
       <formula>NOT(ISERROR(SEARCH("DN",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4766,9 +4894,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CY9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BN2" sqref="BN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5084,7 +5212,7 @@
       <c r="CX1" s="9"/>
       <c r="CY1" s="9"/>
     </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:103" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>170</v>
       </c>
@@ -5289,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="CL2" s="17">
-        <f>(SUM($F2:$AB2)-SMALL($F2:$AB2,2)-SMALL($F2:$AB2,1))/(3*(COUNTA($F2:$AB2)-2))</f>
+        <f>(SUM($F2:$AB2) - SMALL($F2:$AB2,1) - SMALL($F2:$AB2,2)) / (3 * (COUNTA($F2:$AB2) - 2))</f>
         <v>1</v>
       </c>
       <c r="CM2" s="17">
@@ -5305,7 +5433,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="CP2" s="15">
-        <f>SUM($BN2:$CK2)/(24-COUNTBLANK(BN2:CK2))</f>
+        <f>AVERAGEIF($BN2:$CK2, "&lt;&gt;")</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="CQ2" s="19">
@@ -5313,22 +5441,22 @@
         <v>0.88394088669950743</v>
       </c>
       <c r="CR2" t="str">
-        <f t="shared" ref="CR2:CR5" si="2">IF($CQ2&gt;=0.93,"A",IF($CQ2&gt;=0.9,"A-",IF($CQ2&gt;=0.87,"B+",IF($CQ2&gt;=0.83,"B",IF($CQ2&gt;=0.8,"B-",IF($CQ2&gt;=0.77,"C+",IF($CQ2&gt;=0.73,"C",IF($CQ2&gt;=0.7,"C-",IF($CQ2&gt;=0.67,"D+",IF($CQ2&gt;=0.6,"D","F"))))))))))</f>
+        <f>LOOKUP($CQ2, {0,0.6,0.67,0.7,0.73,0.77,0.8,0.83,0.87,0.9,0.93}, {"F","D","D+","C-","C","C+","B-","B","B+","A-","A"})</f>
         <v>B+</v>
       </c>
       <c r="CS2" s="23">
         <f>$CL2*0.04+$CM2*0.05+$CN2*0.15+$CO2*0.16+(SUM($BN2:$CA2))/14*0.6</f>
         <v>0.89822660098522167</v>
       </c>
-      <c r="CT2" t="str">
-        <f t="shared" ref="CT2:CT5" si="3">IF($CS2&gt;=0.93,"A",IF($CS2&gt;=0.9,"A-",IF($CS2&gt;=0.87,"B+",IF($CS2&gt;=0.83,"B",IF($CS2&gt;=0.8,"B-",IF($CS2&gt;=0.77,"C+",IF($CS2&gt;=0.73,"C",IF($CS2&gt;=0.7,"C-",IF($CS2&gt;=0.67,"D+",IF($CS2&gt;=0.6,"D","F"))))))))))</f>
+      <c r="CT2" s="49" t="str">
+        <f>LOOKUP($CS2, {0,0.6,0.67,0.7,0.73,0.77,0.8,0.83,0.87,0.9,0.93}, {"F","D","D+","C-","C","C+","B-","B","B+","A-","A"})</f>
         <v>B+</v>
       </c>
       <c r="CU2" s="23"/>
       <c r="CX2" s="11"/>
       <c r="CY2" s="38"/>
     </row>
-    <row r="3" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:103" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>171</v>
       </c>
@@ -5533,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="CL3" s="17">
-        <f t="shared" ref="CL3:CL5" si="4">(SUM($F3:$AB3)-SMALL($F3:$AB3,2)-SMALL($F3:$AB3,1))/(3*(COUNTA($F3:$AB3)-2))</f>
+        <f t="shared" ref="CL3:CL5" si="2">(SUM($F3:$AB3) - SMALL($F3:$AB3,1) - SMALL($F3:$AB3,2)) / (3 * (COUNTA($F3:$AB3) - 2))</f>
         <v>1</v>
       </c>
       <c r="CM3" s="17">
@@ -5541,38 +5669,38 @@
         <v>1</v>
       </c>
       <c r="CN3" s="36">
-        <f t="shared" ref="CN3:CN5" si="5">AVERAGE($AU3:$BD3)</f>
+        <f t="shared" ref="CN3:CN5" si="3">AVERAGE($AU3:$BD3)</f>
         <v>0.86206896551724133</v>
       </c>
       <c r="CO3" s="36">
-        <f t="shared" ref="CO3:CO5" si="6">AVERAGE(BE3:BM3)</f>
+        <f t="shared" ref="CO3:CO5" si="4">AVERAGE(BE3:BM3)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="CP3" s="15">
-        <f t="shared" ref="CP3:CP5" si="7">SUM($BN3:$CK3)/(24-COUNTBLANK(BN3:CK3))</f>
+        <f t="shared" ref="CP3:CP5" si="5">AVERAGEIF($BN3:$CK3, "&lt;&gt;")</f>
         <v>0.79166666666666663</v>
       </c>
       <c r="CQ3" s="19">
-        <f t="shared" ref="CQ3:CQ5" si="8">$CL3*0.04+$CM3*0.05+$CN3*0.15+$CO3*0.16+$CP3*0.6</f>
+        <f t="shared" ref="CQ3:CQ5" si="6">$CL3*0.04+$CM3*0.05+$CN3*0.15+$CO3*0.16+$CP3*0.6</f>
         <v>0.83145320197044326</v>
       </c>
       <c r="CR3" t="str">
-        <f t="shared" si="2"/>
+        <f>LOOKUP($CQ3, {0,0.6,0.67,0.7,0.73,0.77,0.8,0.83,0.87,0.9,0.93}, {"F","D","D+","C-","C","C+","B-","B","B+","A-","A"})</f>
         <v>B</v>
       </c>
       <c r="CS3" s="23">
-        <f t="shared" ref="CS3:CS5" si="9">$CL3*0.04+$CM3*0.05+$CN3*0.15+$CO3*0.16+(SUM($BN3:$CA3))/14*0.6</f>
+        <f t="shared" ref="CS3:CS5" si="7">$CL3*0.04+$CM3*0.05+$CN3*0.15+$CO3*0.16+(SUM($BN3:$CA3))/14*0.6</f>
         <v>0.8278817733990147</v>
       </c>
-      <c r="CT3" t="str">
-        <f t="shared" si="3"/>
+      <c r="CT3" s="49" t="str">
+        <f>LOOKUP($CS3, {0,0.6,0.67,0.7,0.73,0.77,0.8,0.83,0.87,0.9,0.93}, {"F","D","D+","C-","C","C+","B-","B","B+","A-","A"})</f>
         <v>B-</v>
       </c>
       <c r="CU3" s="23"/>
       <c r="CX3" s="11"/>
       <c r="CY3" s="38"/>
     </row>
-    <row r="4" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:103" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>172</v>
       </c>
@@ -5777,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="CL4" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="CM4" s="17">
@@ -5785,38 +5913,38 @@
         <v>1</v>
       </c>
       <c r="CN4" s="36">
+        <f t="shared" si="3"/>
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="CO4" s="36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="CP4" s="15">
         <f t="shared" si="5"/>
-        <v>0.89655172413793105</v>
-      </c>
-      <c r="CO4" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="CQ4" s="19">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="CP4" s="15">
+        <v>0.83448275862068955</v>
+      </c>
+      <c r="CR4" t="str">
+        <f>LOOKUP($CQ4, {0,0.6,0.67,0.7,0.73,0.77,0.8,0.83,0.87,0.9,0.93}, {"F","D","D+","C-","C","C+","B-","B","B+","A-","A"})</f>
+        <v>B</v>
+      </c>
+      <c r="CS4" s="23">
         <f t="shared" si="7"/>
-        <v>0.75</v>
-      </c>
-      <c r="CQ4" s="19">
-        <f t="shared" si="8"/>
-        <v>0.83448275862068955</v>
-      </c>
-      <c r="CR4" t="str">
-        <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
-      <c r="CS4" s="23">
-        <f t="shared" si="9"/>
         <v>0.94162561576354675</v>
       </c>
-      <c r="CT4" t="str">
-        <f t="shared" si="3"/>
+      <c r="CT4" s="49" t="str">
+        <f>LOOKUP($CS4, {0,0.6,0.67,0.7,0.73,0.77,0.8,0.83,0.87,0.9,0.93}, {"F","D","D+","C-","C","C+","B-","B","B+","A-","A"})</f>
         <v>A</v>
       </c>
       <c r="CU4" s="23"/>
       <c r="CX4" s="11"/>
       <c r="CY4" s="38"/>
     </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:103" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>173</v>
       </c>
@@ -6021,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="CL5" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="CM5" s="17">
@@ -6029,31 +6157,31 @@
         <v>1</v>
       </c>
       <c r="CN5" s="36">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="CO5" s="36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="CP5" s="15">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="CO5" s="36">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="CQ5" s="19">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="CP5" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="CR5" t="str">
+        <f>LOOKUP($CQ5, {0,0.6,0.67,0.7,0.73,0.77,0.8,0.83,0.87,0.9,0.93}, {"F","D","D+","C-","C","C+","B-","B","B+","A-","A"})</f>
+        <v>B-</v>
+      </c>
+      <c r="CS5" s="23">
         <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="CQ5" s="19">
-        <f t="shared" si="8"/>
-        <v>0.8</v>
-      </c>
-      <c r="CR5" t="str">
-        <f t="shared" si="2"/>
-        <v>B-</v>
-      </c>
-      <c r="CS5" s="23">
-        <f t="shared" si="9"/>
         <v>0.82857142857142851</v>
       </c>
-      <c r="CT5" t="str">
-        <f t="shared" si="3"/>
+      <c r="CT5" s="49" t="str">
+        <f>LOOKUP($CS5, {0,0.6,0.67,0.7,0.73,0.77,0.8,0.83,0.87,0.9,0.93}, {"F","D","D+","C-","C","C+","B-","B","B+","A-","A"})</f>
         <v>B-</v>
       </c>
       <c r="CU5" s="23"/>
@@ -6108,44 +6236,44 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN2:CO5">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="lessThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="lessThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP2:CP5">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CR2:CR5 CT2:CT5 CV2:CV5">
-    <cfRule type="cellIs" dxfId="8" priority="34" operator="equal">
+  <conditionalFormatting sqref="CV2:CV5 CR2:CR5">
+    <cfRule type="cellIs" dxfId="22" priority="42" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="35" operator="containsText" text="D+">
+    <cfRule type="containsText" dxfId="21" priority="40" operator="containsText" text="D+">
       <formula>NOT(ISERROR(SEARCH("D+",CR2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="41" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="37" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",CR2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="38" operator="containsText" text="B-">
+    <cfRule type="containsText" dxfId="18" priority="38" operator="containsText" text="B-">
       <formula>NOT(ISERROR(SEARCH("B-",CR2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="39" operator="containsText" text="B+">
+    <cfRule type="containsText" dxfId="17" priority="36" operator="containsText" text="B+">
       <formula>NOT(ISERROR(SEARCH("B+",CR2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="37" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="41" operator="containsText" text="A-">
+    <cfRule type="containsText" dxfId="15" priority="35" stopIfTrue="1" operator="containsText" text="A-">
       <formula>NOT(ISERROR(SEARCH("A-",CR2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="42" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="14" priority="34" stopIfTrue="1" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",CR2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Standards based exam generator/Linear Algebra Example Grades.xlsx
+++ b/Standards based exam generator/Linear Algebra Example Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://davidsoncollegenc-my.sharepoint.com/personal/clmerriman_davidson_edu/Documents/Teaching--Course Material and Documents/Linear Algebra/linear-alg-standards/linear-alg-standards/Standards based exam generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1067" documentId="8_{523429E8-7BA5-FA45-8CBA-2096FCB904FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB61BA2E-094A-2049-919D-144F76468CBF}"/>
+  <xr:revisionPtr revIDLastSave="1068" documentId="8_{523429E8-7BA5-FA45-8CBA-2096FCB904FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94536EDB-0293-2D48-BF79-77B28B32EAA9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="176">
   <si>
     <t>First name</t>
   </si>
@@ -131,18 +131,6 @@
   </si>
   <si>
     <t>Course total (Real)</t>
-  </si>
-  <si>
-    <t>801408950</t>
-  </si>
-  <si>
-    <t>801429324</t>
-  </si>
-  <si>
-    <t>801436902</t>
-  </si>
-  <si>
-    <t>801430795</t>
   </si>
   <si>
     <t>U</t>
@@ -1521,36 +1509,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>174</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E2" s="16">
         <v>27</v>
@@ -1559,18 +1547,18 @@
         <v>29</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E3" s="16">
         <v>25</v>
@@ -1579,18 +1567,18 @@
         <v>29</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E4" s="16">
         <v>26</v>
@@ -1599,18 +1587,18 @@
         <v>29</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>176</v>
-      </c>
       <c r="D5" s="16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E5" s="16">
         <v>29</v>
@@ -1619,7 +1607,7 @@
         <v>29</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1645,36 +1633,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>174</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E2" s="16">
         <v>13.5</v>
@@ -1683,18 +1671,18 @@
         <v>14</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E3" s="16">
         <v>12</v>
@@ -1703,18 +1691,18 @@
         <v>14</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>176</v>
-      </c>
       <c r="D4" s="16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E4" s="16">
         <v>14</v>
@@ -1723,18 +1711,18 @@
         <v>14</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E5" s="16">
         <v>14</v>
@@ -1743,7 +1731,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1769,63 +1757,63 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="47" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E2" s="2">
         <v>1.75</v>
@@ -1834,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="3">
@@ -1847,13 +1835,13 @@
         <v>1</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2">
         <f>COUNTIF(M2:O2,"U")</f>
@@ -1862,13 +1850,13 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E3" s="2">
         <v>2.5</v>
@@ -1877,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="3">
@@ -1890,13 +1878,13 @@
         <v>1</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q5" si="0">COUNTIF(M3:O3,"U")</f>
@@ -1905,13 +1893,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -1920,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="3">
@@ -1933,13 +1921,13 @@
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
@@ -1948,13 +1936,13 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E5" s="2">
         <v>2.25</v>
@@ -1963,7 +1951,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="3">
@@ -1976,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
@@ -2018,81 +2006,81 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O1" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="U1" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="T1" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>138</v>
-      </c>
       <c r="W1" s="35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="X1" s="35" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>174</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E2" s="21">
         <v>4.75</v>
@@ -2101,7 +2089,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="4"/>
@@ -2109,28 +2097,28 @@
         <v>0</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="T2" s="21">
         <f>COUNTIF(K2:R2,"U")</f>
@@ -2151,13 +2139,13 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E3" s="21">
         <v>7</v>
@@ -2166,7 +2154,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="4"/>
@@ -2174,28 +2162,28 @@
         <v>0</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R3" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="T3" s="21">
         <f t="shared" ref="T3:T5" si="0">COUNTIF(K3:R3,"U")</f>
@@ -2216,13 +2204,13 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>176</v>
-      </c>
       <c r="D4" s="16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E4" s="21">
         <v>6</v>
@@ -2231,7 +2219,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="4"/>
@@ -2239,28 +2227,28 @@
         <v>0</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T4" s="21">
         <f t="shared" si="0"/>
@@ -2281,13 +2269,13 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E5" s="21">
         <v>5.75</v>
@@ -2296,7 +2284,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="4"/>
@@ -2304,28 +2292,28 @@
         <v>0</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R5" s="21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T5" s="21">
         <f t="shared" si="0"/>
@@ -2346,7 +2334,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="S6" s="35" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="T6" s="21">
         <f>AVERAGE(T2:T4)</f>
@@ -2367,7 +2355,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="S7" s="35" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="T7" s="21">
         <f>MEDIAN(T2:T4)</f>
@@ -2388,7 +2376,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="S8" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="T8" s="21" t="e">
         <f>MODE(T2:T4)</f>
@@ -2438,153 +2426,153 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P1" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="W1" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="X1" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="Y1" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="Z1" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="T1" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="U1" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="V1" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="W1" s="29" t="s">
+      <c r="AB1" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE1" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF1" s="35" t="s">
         <v>150</v>
-      </c>
-      <c r="X1" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y1" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z1" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB1" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC1" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE1" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF1" s="35" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>174</v>
-      </c>
       <c r="D2" s="25" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F2" s="25">
         <v>3</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P2" s="29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R2" s="29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="S2" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T2" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U2" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="W2" s="29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="X2" s="29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Y2" s="29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Z2" s="29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AB2" s="21">
         <f>COUNTIF(M2:Z2,"U")+COUNTBLANK(M2:O2)</f>
@@ -2605,52 +2593,52 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F3" s="25">
         <v>3</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R3" s="29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="S3" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T3" s="29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="U3" s="29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="V3" s="29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="W3" s="29" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="X3" s="29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Y3" s="29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Z3" s="29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AB3" s="21">
         <f t="shared" ref="AB3:AB5" si="0">COUNTIF(M3:Z3,"U")+COUNTBLANK(M3:O3)</f>
@@ -2671,52 +2659,52 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>176</v>
-      </c>
       <c r="D4" s="25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F4" s="25">
         <v>3</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P4" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R4" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S4" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T4" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U4" s="29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="V4" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W4" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X4" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y4" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Z4" s="29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AB4" s="21">
         <f t="shared" si="0"/>
@@ -2737,13 +2725,13 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E5" s="25">
         <v>2</v>
@@ -2752,7 +2740,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="26">
@@ -2765,46 +2753,46 @@
         <v>1</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N5" s="25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O5" s="25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P5" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R5" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S5" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T5" s="29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="U5" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V5" s="29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="W5" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X5" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y5" s="29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Z5" s="29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AB5" s="21">
         <f t="shared" si="0"/>
@@ -2825,7 +2813,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AA6" s="35" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AB6" s="21">
         <f>AVERAGE(AB2:AB5)</f>
@@ -2847,7 +2835,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AA7" s="35" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AB7" s="21">
         <f>MEDIAN(AB2:AB5)</f>
@@ -2869,7 +2857,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AA8" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AB8" s="21" t="e">
         <f>MODE(AB2:AB5)</f>
@@ -2903,7 +2891,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q2" sqref="Q2:U5"/>
+      <selection pane="topRight" activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2922,96 +2910,96 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N1" s="39" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O1" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="S1" t="s">
+        <v>154</v>
+      </c>
+      <c r="T1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB1" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC1" s="35" t="s">
         <v>150</v>
-      </c>
-      <c r="P1" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q1" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="R1" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="S1" t="s">
-        <v>158</v>
-      </c>
-      <c r="T1" t="s">
-        <v>159</v>
-      </c>
-      <c r="U1" t="s">
-        <v>160</v>
-      </c>
-      <c r="V1" t="s">
-        <v>161</v>
-      </c>
-      <c r="W1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB1" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC1" s="35" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>174</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E2" s="39">
         <v>6</v>
@@ -3020,7 +3008,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I2" s="41"/>
       <c r="J2" s="40">
@@ -3033,37 +3021,37 @@
         <v>1</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N2" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P2" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="42">
         <f>COUNTIF(M2:W2,"U")+COUNTIF(Review_2_scores!M2:T2,"U")+COUNTBLANK(Review_2_scores!M2:O2)</f>
@@ -3084,13 +3072,13 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E3" s="39">
         <v>5.5</v>
@@ -3099,7 +3087,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="40">
@@ -3112,37 +3100,37 @@
         <v>1</v>
       </c>
       <c r="M3" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N3" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O3" s="39" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P3" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="V3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Y3" s="42">
         <f>COUNTIF(M3:W3,"U")+COUNTIF(Review_2_scores!M3:T3,"U")+COUNTBLANK(Review_2_scores!M3:O3)</f>
@@ -3163,13 +3151,13 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>176</v>
-      </c>
       <c r="D4" s="16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E4" s="39">
         <v>5.25</v>
@@ -3178,7 +3166,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I4" s="41"/>
       <c r="J4" s="40">
@@ -3191,37 +3179,37 @@
         <v>1</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N4" s="39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O4" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P4" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="V4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="W4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Y4" s="42">
         <f>COUNTIF(M4:W4,"U")+COUNTIF(Review_2_scores!M4:T4,"U")+COUNTBLANK(Review_2_scores!M4:O4)</f>
@@ -3242,13 +3230,13 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E5" s="39">
         <v>2</v>
@@ -3257,7 +3245,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I5" s="41"/>
       <c r="J5" s="40">
@@ -3270,37 +3258,37 @@
         <v>1</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O5" s="39" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P5" s="39" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="39" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="R5" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="W5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Y5" s="42">
         <f>COUNTIF(M5:W5,"U")+COUNTIF(Review_2_scores!M5:T5,"U")+COUNTBLANK(Review_2_scores!M5:O5)</f>
@@ -3351,93 +3339,93 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H1" s="44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K1" s="44" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L1" s="44" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q1" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="N1" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="O1" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="P1" s="44" t="s">
+      <c r="R1" t="s">
         <v>161</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="S1" t="s">
         <v>162</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U1" t="s">
+        <v>164</v>
+      </c>
+      <c r="V1" t="s">
         <v>165</v>
       </c>
-      <c r="S1" t="s">
-        <v>166</v>
-      </c>
-      <c r="T1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U1" t="s">
-        <v>168</v>
-      </c>
-      <c r="V1" t="s">
-        <v>169</v>
-      </c>
       <c r="Y1" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AB1" s="35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AC1" s="35" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>174</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E2" s="44">
         <v>4.5</v>
@@ -3446,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I2" s="46"/>
       <c r="J2" s="45">
@@ -3459,34 +3447,34 @@
         <v>1</v>
       </c>
       <c r="M2" s="44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O2" s="44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P2" s="44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Y2" s="42">
         <f>COUNTIF(M2:V2,"U")+IF(R2&lt;&gt;"",COUNTBLANK(M2:Q2),0)+COUNTIF(Review_3_scores!M2:R2,"U")+COUNTIF(Review_2_scores!M2:T2,"U")+COUNTBLANK(Review_2_scores!M2:O2)</f>
@@ -3507,13 +3495,13 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E3" s="44">
         <v>4.5</v>
@@ -3522,7 +3510,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I3" s="46"/>
       <c r="J3" s="45">
@@ -3535,34 +3523,34 @@
         <v>1</v>
       </c>
       <c r="M3" s="44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N3" s="44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O3" s="44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P3" s="44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S3" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Y3" s="42">
         <f>COUNTIF(M3:V3,"U")+IF(R3&lt;&gt;"",COUNTBLANK(M3:Q3),0)+COUNTIF(Review_3_scores!M3:R3,"U")+COUNTIF(Review_2_scores!M3:T3,"U")+COUNTBLANK(Review_2_scores!M3:O3)</f>
@@ -3583,13 +3571,13 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E4" s="44">
         <v>3.5</v>
@@ -3598,7 +3586,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I4" s="46"/>
       <c r="J4" s="45">
@@ -3611,34 +3599,34 @@
         <v>1</v>
       </c>
       <c r="M4" s="44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N4" s="44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O4" s="44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P4" s="44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S4" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="V4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Y4" s="42">
         <f>COUNTIF(M4:V4,"U")+IF(R4&lt;&gt;"",COUNTBLANK(M4:Q4),0)+COUNTIF(Review_3_scores!M4:R4,"U")+COUNTIF(Review_2_scores!M4:T4,"U")+COUNTBLANK(Review_2_scores!M4:O4)</f>
@@ -3659,13 +3647,13 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>176</v>
-      </c>
       <c r="D5" s="16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E5" s="44">
         <v>4.5</v>
@@ -3674,7 +3662,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I5" s="46"/>
       <c r="J5" s="45">
@@ -3687,34 +3675,34 @@
         <v>1</v>
       </c>
       <c r="M5" s="44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N5" s="44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P5" s="44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="R5" s="39" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S5" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="V5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y5" s="42">
         <f>COUNTIF(M5:V5,"U")+IF(R5&lt;&gt;"",COUNTBLANK(M5:Q5),0)+COUNTIF(Review_3_scores!M5:R5,"U")+COUNTIF(Review_2_scores!M5:T5,"U")+COUNTBLANK(Review_2_scores!M5:O5)</f>
@@ -3735,7 +3723,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="X6" s="39" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Y6" s="21">
         <f>AVERAGE(Y2:Y5)</f>
@@ -3757,7 +3745,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="X7" s="39" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Y7" s="21">
         <f>MEDIAN(Y2:Y5)</f>
@@ -3779,7 +3767,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="X8" s="39" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Y8" s="21" t="e">
         <f>MODE(Y2:Y5)</f>
@@ -3826,28 +3814,28 @@
   <sheetData>
     <row r="1" spans="1:41" s="5" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="I1" s="6">
         <v>1</v>
@@ -3922,33 +3910,33 @@
         <v>24</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AJ1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AK1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="C2" s="2">
         <f t="shared" ref="C2:C5" si="0">COUNTIF(I2:AF2,"U")</f>
@@ -4073,10 +4061,10 @@
     </row>
     <row r="3" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" si="0"/>
@@ -4201,10 +4189,10 @@
     </row>
     <row r="4" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
@@ -4329,10 +4317,10 @@
     </row>
     <row r="5" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
@@ -4484,7 +4472,7 @@
     </row>
     <row r="7" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" ref="I7:AA7" si="6">COUNTIF(I2:I5,"U")</f>
@@ -4570,7 +4558,7 @@
     </row>
     <row r="8" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" ref="I8:AA8" si="7">COUNTIF(I2:I5,"P")</f>
@@ -4656,7 +4644,7 @@
     </row>
     <row r="9" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" ref="I9:AA9" si="8">COUNTIF(I2:I5,"DN")</f>
@@ -4742,7 +4730,7 @@
     </row>
     <row r="10" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" ref="I10:AA10" si="9">COUNTIF(I2:I5,"X")</f>
@@ -4895,8 +4883,8 @@
   <dimension ref="A1:CY9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BN2" sqref="BN2"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4931,187 +4919,187 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AG1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AU1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BE1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS1" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU1" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BE1" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="BN1" s="10" t="s">
         <v>4</v>
@@ -5186,16 +5174,16 @@
         <v>27</v>
       </c>
       <c r="CL1" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="CP1" s="1" t="s">
         <v>28</v>
@@ -5205,7 +5193,7 @@
       </c>
       <c r="CR1" s="1"/>
       <c r="CS1" s="43" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="CT1" s="1"/>
       <c r="CU1" s="24"/>
@@ -5214,16 +5202,14 @@
     </row>
     <row r="2" spans="1:103" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="11">
@@ -5458,16 +5444,14 @@
     </row>
     <row r="3" spans="1:103" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="11">
@@ -5702,16 +5686,14 @@
     </row>
     <row r="4" spans="1:103" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="11">
@@ -5946,16 +5928,14 @@
     </row>
     <row r="5" spans="1:103" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="11">
@@ -6193,7 +6173,7 @@
     </row>
     <row r="7" spans="1:103" x14ac:dyDescent="0.2">
       <c r="CR7" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="CS7" s="18">
         <f>AVERAGE(CS2:CS5)</f>
@@ -6203,7 +6183,7 @@
     </row>
     <row r="8" spans="1:103" x14ac:dyDescent="0.2">
       <c r="CR8" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="CS8" s="18">
         <f>MEDIAN(CS2:CS5)</f>
@@ -6213,7 +6193,7 @@
     </row>
     <row r="9" spans="1:103" x14ac:dyDescent="0.2">
       <c r="CR9" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="CS9" s="18">
         <f>STDEV(CS2:CS5)</f>
